--- a/mapeamento_layouts.xlsx
+++ b/mapeamento_layouts.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C2944"/>
+  <dimension ref="A1:C3082"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -596,7 +596,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>MHTML</t>
+          <t>HTML</t>
         </is>
       </c>
     </row>
@@ -1421,7 +1421,7 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>TXT</t>
+          <t>PDF</t>
         </is>
       </c>
     </row>
@@ -20328,7 +20328,7 @@
       </c>
       <c r="C1327" t="inlineStr">
         <is>
-          <t>TEXTO</t>
+          <t>PDF</t>
         </is>
       </c>
     </row>
@@ -26468,7 +26468,11 @@
           <t>KENLO – EXTRATO</t>
         </is>
       </c>
-      <c r="C1741" t="inlineStr"/>
+      <c r="C1741" t="inlineStr">
+        <is>
+          <t>PDF</t>
+        </is>
+      </c>
     </row>
     <row r="1742">
       <c r="A1742" t="n">
@@ -27120,11 +27124,7 @@
           <t>UAU - CONTAS RECEBIDAS</t>
         </is>
       </c>
-      <c r="C1785" t="inlineStr">
-        <is>
-          <t>PDF</t>
-        </is>
-      </c>
+      <c r="C1785" t="inlineStr"/>
     </row>
     <row r="1786">
       <c r="A1786" t="n">
@@ -31885,7 +31885,11 @@
           <t>TOPAZIO - EXTRATO</t>
         </is>
       </c>
-      <c r="C2108" t="inlineStr"/>
+      <c r="C2108" t="inlineStr">
+        <is>
+          <t>PDF</t>
+        </is>
+      </c>
     </row>
     <row r="2109">
       <c r="A2109" t="n">
@@ -36228,7 +36232,7 @@
       </c>
       <c r="B2402" t="inlineStr">
         <is>
-          <t>SIZESYSTEMS - CONTAS A PAGAR</t>
+          <t>SIZESYSTEMS/TELLACE - CONTAS A PAGAR</t>
         </is>
       </c>
       <c r="C2402" t="inlineStr">
@@ -44102,7 +44106,11 @@
           <t>KAMINO - COMPROVANTES</t>
         </is>
       </c>
-      <c r="C2935" t="inlineStr"/>
+      <c r="C2935" t="inlineStr">
+        <is>
+          <t>PDF</t>
+        </is>
+      </c>
     </row>
     <row r="2936">
       <c r="A2936" t="n">
@@ -44230,6 +44238,2044 @@
         </is>
       </c>
       <c r="C2944" t="inlineStr">
+        <is>
+          <t>PDF</t>
+        </is>
+      </c>
+    </row>
+    <row r="2945">
+      <c r="A2945" t="n">
+        <v>1339</v>
+      </c>
+      <c r="B2945" t="inlineStr">
+        <is>
+          <t>EXTRATO BB V2</t>
+        </is>
+      </c>
+      <c r="C2945" t="inlineStr">
+        <is>
+          <t>PDF</t>
+        </is>
+      </c>
+    </row>
+    <row r="2946">
+      <c r="A2946" t="n">
+        <v>6831</v>
+      </c>
+      <c r="B2946" t="inlineStr">
+        <is>
+          <t>ODONTOSFERA - DIOPS CONTÁBIL</t>
+        </is>
+      </c>
+      <c r="C2946" t="inlineStr">
+        <is>
+          <t>PDF</t>
+        </is>
+      </c>
+    </row>
+    <row r="2947">
+      <c r="A2947" t="n">
+        <v>6832</v>
+      </c>
+      <c r="B2947" t="inlineStr">
+        <is>
+          <t>SOMAPAY - EXTRATO CONTA DE PAGAMENTO</t>
+        </is>
+      </c>
+      <c r="C2947" t="inlineStr">
+        <is>
+          <t>PDF</t>
+        </is>
+      </c>
+    </row>
+    <row r="2948">
+      <c r="A2948" t="n">
+        <v>6833</v>
+      </c>
+      <c r="B2948" t="inlineStr">
+        <is>
+          <t>SGE - FLUXO DE CAIXA POR CONTA</t>
+        </is>
+      </c>
+      <c r="C2948" t="inlineStr">
+        <is>
+          <t>PDF</t>
+        </is>
+      </c>
+    </row>
+    <row r="2949">
+      <c r="A2949" t="n">
+        <v>6834</v>
+      </c>
+      <c r="B2949" t="inlineStr">
+        <is>
+          <t>OK BRAZIL - FATURA</t>
+        </is>
+      </c>
+      <c r="C2949" t="inlineStr">
+        <is>
+          <t>PDF</t>
+        </is>
+      </c>
+    </row>
+    <row r="2950">
+      <c r="A2950" t="n">
+        <v>6835</v>
+      </c>
+      <c r="B2950" t="inlineStr">
+        <is>
+          <t>THR SOFTWARES - MOVIMENTAÇÃO DE CAIXA</t>
+        </is>
+      </c>
+      <c r="C2950" t="inlineStr">
+        <is>
+          <t>PDF</t>
+        </is>
+      </c>
+    </row>
+    <row r="2951">
+      <c r="A2951" t="n">
+        <v>6836</v>
+      </c>
+      <c r="B2951" t="inlineStr">
+        <is>
+          <t>SISTEMA DESCONHECIDO - EXTRATO</t>
+        </is>
+      </c>
+      <c r="C2951" t="inlineStr">
+        <is>
+          <t>PDF</t>
+        </is>
+      </c>
+    </row>
+    <row r="2952">
+      <c r="A2952" t="n">
+        <v>6837</v>
+      </c>
+      <c r="B2952" t="inlineStr">
+        <is>
+          <t>DESCONHECIDO - EXTRATO P/ CONCILIAÇÃO</t>
+        </is>
+      </c>
+      <c r="C2952" t="inlineStr">
+        <is>
+          <t>PDF</t>
+        </is>
+      </c>
+    </row>
+    <row r="2953">
+      <c r="A2953" t="n">
+        <v>6838</v>
+      </c>
+      <c r="B2953" t="inlineStr">
+        <is>
+          <t>IP4Y - EXTRATO CONTA / LANÇAMENTOS</t>
+        </is>
+      </c>
+      <c r="C2953" t="inlineStr">
+        <is>
+          <t>PDF</t>
+        </is>
+      </c>
+    </row>
+    <row r="2954">
+      <c r="A2954" t="n">
+        <v>6839</v>
+      </c>
+      <c r="B2954" t="inlineStr">
+        <is>
+          <t>EASY COMPELS - RELAÇÃO DE DUPLICATAS REC</t>
+        </is>
+      </c>
+      <c r="C2954" t="inlineStr">
+        <is>
+          <t>PDF</t>
+        </is>
+      </c>
+    </row>
+    <row r="2955">
+      <c r="A2955" t="n">
+        <v>6840</v>
+      </c>
+      <c r="B2955" t="inlineStr">
+        <is>
+          <t>BMP - EXTRATO V2</t>
+        </is>
+      </c>
+      <c r="C2955" t="inlineStr"/>
+    </row>
+    <row r="2956">
+      <c r="A2956" t="n">
+        <v>6841</v>
+      </c>
+      <c r="B2956" t="inlineStr">
+        <is>
+          <t>SISTEMA DESCONHECIDO - FECHAMENTO CAIXA</t>
+        </is>
+      </c>
+      <c r="C2956" t="inlineStr">
+        <is>
+          <t>PDF</t>
+        </is>
+      </c>
+    </row>
+    <row r="2957">
+      <c r="A2957" t="n">
+        <v>6842</v>
+      </c>
+      <c r="B2957" t="inlineStr">
+        <is>
+          <t>BS2 - EXTRATO</t>
+        </is>
+      </c>
+      <c r="C2957" t="inlineStr">
+        <is>
+          <t>PDF</t>
+        </is>
+      </c>
+    </row>
+    <row r="2958">
+      <c r="A2958" t="n">
+        <v>1085</v>
+      </c>
+      <c r="B2958" t="inlineStr">
+        <is>
+          <t>EXTRATO CREDINOR - ALENCAR E PRATES - PDF</t>
+        </is>
+      </c>
+      <c r="C2958" t="inlineStr">
+        <is>
+          <t>PDF</t>
+        </is>
+      </c>
+    </row>
+    <row r="2959">
+      <c r="A2959" t="n">
+        <v>6843</v>
+      </c>
+      <c r="B2959" t="inlineStr">
+        <is>
+          <t>AILOS - DEMONSTRATIVO DE APLICAÇÕES</t>
+        </is>
+      </c>
+      <c r="C2959" t="inlineStr">
+        <is>
+          <t>PDF</t>
+        </is>
+      </c>
+    </row>
+    <row r="2960">
+      <c r="A2960" t="n">
+        <v>1765</v>
+      </c>
+      <c r="B2960" t="inlineStr">
+        <is>
+          <t>XP 1811971 APLIC (ICACAU)</t>
+        </is>
+      </c>
+      <c r="C2960" t="inlineStr">
+        <is>
+          <t>PDF</t>
+        </is>
+      </c>
+    </row>
+    <row r="2961">
+      <c r="A2961" t="n">
+        <v>6844</v>
+      </c>
+      <c r="B2961" t="inlineStr">
+        <is>
+          <t>BANESTES - DESCONTO DE TÍTULOS</t>
+        </is>
+      </c>
+      <c r="C2961" t="inlineStr">
+        <is>
+          <t>PDF</t>
+        </is>
+      </c>
+    </row>
+    <row r="2962">
+      <c r="A2962" t="n">
+        <v>6845</v>
+      </c>
+      <c r="B2962" t="inlineStr">
+        <is>
+          <t>C6 BANK - REALTÓRIO DE BOLETOS (FRANCESINHA)</t>
+        </is>
+      </c>
+      <c r="C2962" t="inlineStr">
+        <is>
+          <t>PDF</t>
+        </is>
+      </c>
+    </row>
+    <row r="2963">
+      <c r="A2963" t="n">
+        <v>1647</v>
+      </c>
+      <c r="B2963" t="inlineStr">
+        <is>
+          <t>SENIOR - FOLHA - ATIVOS</t>
+        </is>
+      </c>
+      <c r="C2963" t="inlineStr">
+        <is>
+          <t>PDF</t>
+        </is>
+      </c>
+    </row>
+    <row r="2964">
+      <c r="A2964" t="n">
+        <v>6846</v>
+      </c>
+      <c r="B2964" t="inlineStr">
+        <is>
+          <t>SISTEMA DESCONHECIDO - DESPESAS</t>
+        </is>
+      </c>
+      <c r="C2964" t="inlineStr">
+        <is>
+          <t>PDF</t>
+        </is>
+      </c>
+    </row>
+    <row r="2965">
+      <c r="A2965" t="n">
+        <v>6847</v>
+      </c>
+      <c r="B2965" t="inlineStr">
+        <is>
+          <t>SISTEMA DESCONHECIDO - RELATÓRIO DE PAGAMENTOS EFETUADOS</t>
+        </is>
+      </c>
+      <c r="C2965" t="inlineStr">
+        <is>
+          <t>PDF</t>
+        </is>
+      </c>
+    </row>
+    <row r="2966">
+      <c r="A2966" t="n">
+        <v>6848</v>
+      </c>
+      <c r="B2966" t="inlineStr">
+        <is>
+          <t>SAFRA - CONSOLIDATED STATEMENT OF ACCOUNTS</t>
+        </is>
+      </c>
+      <c r="C2966" t="inlineStr">
+        <is>
+          <t>PDF</t>
+        </is>
+      </c>
+    </row>
+    <row r="2967">
+      <c r="A2967" t="n">
+        <v>6849</v>
+      </c>
+      <c r="B2967" t="inlineStr">
+        <is>
+          <t>TELLACE - CONTAS A RECEBER POR VENCIMENTO</t>
+        </is>
+      </c>
+      <c r="C2967" t="inlineStr">
+        <is>
+          <t>PDF</t>
+        </is>
+      </c>
+    </row>
+    <row r="2968">
+      <c r="A2968" t="n">
+        <v>6850</v>
+      </c>
+      <c r="B2968" t="inlineStr">
+        <is>
+          <t>KAMINO - COMPROVANTES</t>
+        </is>
+      </c>
+      <c r="C2968" t="inlineStr">
+        <is>
+          <t>PDF</t>
+        </is>
+      </c>
+    </row>
+    <row r="2969">
+      <c r="A2969" t="n">
+        <v>6851</v>
+      </c>
+      <c r="B2969" t="inlineStr">
+        <is>
+          <t>BANESTES - DESCONTO DE TÍTULOS (PAGAMENTOS)</t>
+        </is>
+      </c>
+      <c r="C2969" t="inlineStr">
+        <is>
+          <t>PDF</t>
+        </is>
+      </c>
+    </row>
+    <row r="2970">
+      <c r="A2970" t="n">
+        <v>6852</v>
+      </c>
+      <c r="B2970" t="inlineStr">
+        <is>
+          <t>BRUNING JOB - RELATÓRIO DE PAGAMENTOS</t>
+        </is>
+      </c>
+      <c r="C2970" t="inlineStr">
+        <is>
+          <t>PDF</t>
+        </is>
+      </c>
+    </row>
+    <row r="2971">
+      <c r="A2971" t="n">
+        <v>6853</v>
+      </c>
+      <c r="B2971" t="inlineStr">
+        <is>
+          <t>CLINICORP - CONTAS PAGAS</t>
+        </is>
+      </c>
+      <c r="C2971" t="inlineStr"/>
+    </row>
+    <row r="2972">
+      <c r="A2972" t="n">
+        <v>6854</v>
+      </c>
+      <c r="B2972" t="inlineStr">
+        <is>
+          <t>DDESCONHECIDO - FINANCEIRO CONTAS A PAGAR</t>
+        </is>
+      </c>
+      <c r="C2972" t="inlineStr">
+        <is>
+          <t>PDF</t>
+        </is>
+      </c>
+    </row>
+    <row r="2973">
+      <c r="A2973" t="n">
+        <v>6855</v>
+      </c>
+      <c r="B2973" t="inlineStr">
+        <is>
+          <t>DESCONHECIDO - GERENCIAMENTO CONTABIL</t>
+        </is>
+      </c>
+      <c r="C2973" t="inlineStr">
+        <is>
+          <t>PDF</t>
+        </is>
+      </c>
+    </row>
+    <row r="2974">
+      <c r="A2974" t="n">
+        <v>6856</v>
+      </c>
+      <c r="B2974" t="inlineStr">
+        <is>
+          <t>UNICRED - EXTRATO DE TRANSAÇÕES</t>
+        </is>
+      </c>
+      <c r="C2974" t="inlineStr">
+        <is>
+          <t>PDF</t>
+        </is>
+      </c>
+    </row>
+    <row r="2975">
+      <c r="A2975" t="n">
+        <v>6857</v>
+      </c>
+      <c r="B2975" t="inlineStr">
+        <is>
+          <t>QUARTARH - FOLHA DE PAGAMENTO</t>
+        </is>
+      </c>
+      <c r="C2975" t="inlineStr">
+        <is>
+          <t>PDF</t>
+        </is>
+      </c>
+    </row>
+    <row r="2976">
+      <c r="A2976" t="n">
+        <v>6858</v>
+      </c>
+      <c r="B2976" t="inlineStr">
+        <is>
+          <t>P&amp;A INFORMATICA - EXTRATO DE CLIENTE BAIXADOS</t>
+        </is>
+      </c>
+      <c r="C2976" t="inlineStr"/>
+    </row>
+    <row r="2977">
+      <c r="A2977" t="n">
+        <v>6859</v>
+      </c>
+      <c r="B2977" t="inlineStr">
+        <is>
+          <t>BRADESCO - INVEST. CDB V2</t>
+        </is>
+      </c>
+      <c r="C2977" t="inlineStr">
+        <is>
+          <t>PDF</t>
+        </is>
+      </c>
+    </row>
+    <row r="2978">
+      <c r="A2978" t="n">
+        <v>1261</v>
+      </c>
+      <c r="B2978" t="inlineStr">
+        <is>
+          <t>SICOOB - FRATARI ALIMENTOS</t>
+        </is>
+      </c>
+      <c r="C2978" t="inlineStr">
+        <is>
+          <t>PDF</t>
+        </is>
+      </c>
+    </row>
+    <row r="2979">
+      <c r="A2979" t="n">
+        <v>6860</v>
+      </c>
+      <c r="B2979" t="inlineStr">
+        <is>
+          <t>SISJURI - EXTRATO CONTA CORRENTE</t>
+        </is>
+      </c>
+      <c r="C2979" t="inlineStr">
+        <is>
+          <t>PDF</t>
+        </is>
+      </c>
+    </row>
+    <row r="2980">
+      <c r="A2980" t="n">
+        <v>6861</v>
+      </c>
+      <c r="B2980" t="inlineStr">
+        <is>
+          <t>RAZEM - DEMONSTRATIVO DE DESCONTO DE TITULOS</t>
+        </is>
+      </c>
+      <c r="C2980" t="inlineStr">
+        <is>
+          <t>PDF</t>
+        </is>
+      </c>
+    </row>
+    <row r="2981">
+      <c r="A2981" t="n">
+        <v>6862</v>
+      </c>
+      <c r="B2981" t="inlineStr">
+        <is>
+          <t>MUBISYS - CONCILIAÇÃO BANCARIA</t>
+        </is>
+      </c>
+      <c r="C2981" t="inlineStr">
+        <is>
+          <t>PDF</t>
+        </is>
+      </c>
+    </row>
+    <row r="2982">
+      <c r="A2982" t="n">
+        <v>6863</v>
+      </c>
+      <c r="B2982" t="inlineStr">
+        <is>
+          <t>KLAVIER - EXTRATO POR CONTA</t>
+        </is>
+      </c>
+      <c r="C2982" t="inlineStr">
+        <is>
+          <t>PDF</t>
+        </is>
+      </c>
+    </row>
+    <row r="2983">
+      <c r="A2983" t="n">
+        <v>6864</v>
+      </c>
+      <c r="B2983" t="inlineStr">
+        <is>
+          <t>RM SISTEMAS - RELATÓRIO DE CONTAS PAGAS</t>
+        </is>
+      </c>
+      <c r="C2983" t="inlineStr">
+        <is>
+          <t>PDF</t>
+        </is>
+      </c>
+    </row>
+    <row r="2984">
+      <c r="A2984" t="n">
+        <v>6865</v>
+      </c>
+      <c r="B2984" t="inlineStr">
+        <is>
+          <t>DOMÍNIO - RELAÇÃO DE PAGAMENTOS</t>
+        </is>
+      </c>
+      <c r="C2984" t="inlineStr">
+        <is>
+          <t>PDF</t>
+        </is>
+      </c>
+    </row>
+    <row r="2985">
+      <c r="A2985" t="n">
+        <v>1663</v>
+      </c>
+      <c r="B2985" t="inlineStr">
+        <is>
+          <t>DAYCOVAL GRUPO BEST 5001304</t>
+        </is>
+      </c>
+      <c r="C2985" t="inlineStr">
+        <is>
+          <t>PDF</t>
+        </is>
+      </c>
+    </row>
+    <row r="2986">
+      <c r="A2986" t="n">
+        <v>6866</v>
+      </c>
+      <c r="B2986" t="inlineStr">
+        <is>
+          <t>SICOOB - FOLHA DE PAGAMENTO V2</t>
+        </is>
+      </c>
+      <c r="C2986" t="inlineStr">
+        <is>
+          <t>PDF</t>
+        </is>
+      </c>
+    </row>
+    <row r="2987">
+      <c r="A2987" t="n">
+        <v>6867</v>
+      </c>
+      <c r="B2987" t="inlineStr">
+        <is>
+          <t>INFINITE ERP - SITUAÇÃO DOS TÍTULOS A RECEBER POR CLIENTE - SINTÉTICO</t>
+        </is>
+      </c>
+      <c r="C2987" t="inlineStr">
+        <is>
+          <t>PDF</t>
+        </is>
+      </c>
+    </row>
+    <row r="2988">
+      <c r="A2988" t="n">
+        <v>6868</v>
+      </c>
+      <c r="B2988" t="inlineStr">
+        <is>
+          <t>BSOFT - RELATÓRIO DE FATURAS A RECEBER</t>
+        </is>
+      </c>
+      <c r="C2988" t="inlineStr"/>
+    </row>
+    <row r="2989">
+      <c r="A2989" t="n">
+        <v>6869</v>
+      </c>
+      <c r="B2989" t="inlineStr">
+        <is>
+          <t>TECNOSOFT - RELATÓRIO DE EXTRATO BANCÁRIO</t>
+        </is>
+      </c>
+      <c r="C2989" t="inlineStr">
+        <is>
+          <t>PDF</t>
+        </is>
+      </c>
+    </row>
+    <row r="2990">
+      <c r="A2990" t="n">
+        <v>6870</v>
+      </c>
+      <c r="B2990" t="inlineStr">
+        <is>
+          <t>ADM INFORMATICA - TITULOS A PAGAR POR VENCIMENTO</t>
+        </is>
+      </c>
+      <c r="C2990" t="inlineStr">
+        <is>
+          <t>PDF</t>
+        </is>
+      </c>
+    </row>
+    <row r="2991">
+      <c r="A2991" t="n">
+        <v>6871</v>
+      </c>
+      <c r="B2991" t="inlineStr">
+        <is>
+          <t>MILLENNIUM - EXTRATO DE CONTAS</t>
+        </is>
+      </c>
+      <c r="C2991" t="inlineStr">
+        <is>
+          <t>PDF</t>
+        </is>
+      </c>
+    </row>
+    <row r="2992">
+      <c r="A2992" t="n">
+        <v>1273</v>
+      </c>
+      <c r="B2992" t="inlineStr">
+        <is>
+          <t>SICOOB EXTRATO CC - CONCEPT ADMINISTRADORA DE BENS EIRELI</t>
+        </is>
+      </c>
+      <c r="C2992" t="inlineStr">
+        <is>
+          <t>PDF</t>
+        </is>
+      </c>
+    </row>
+    <row r="2993">
+      <c r="A2993" t="n">
+        <v>6872</v>
+      </c>
+      <c r="B2993" t="inlineStr">
+        <is>
+          <t>PHD SISTEMAS - MOVIMENTAÇÕES FINANCEIRAS POR DIA</t>
+        </is>
+      </c>
+      <c r="C2993" t="inlineStr">
+        <is>
+          <t>PDF</t>
+        </is>
+      </c>
+    </row>
+    <row r="2994">
+      <c r="A2994" t="n">
+        <v>6873</v>
+      </c>
+      <c r="B2994" t="inlineStr">
+        <is>
+          <t>JOTA - EXTRATO BANCARIO</t>
+        </is>
+      </c>
+      <c r="C2994" t="inlineStr"/>
+    </row>
+    <row r="2995">
+      <c r="A2995" t="n">
+        <v>6874</v>
+      </c>
+      <c r="B2995" t="inlineStr">
+        <is>
+          <t>SAFRA - EXTRATO COM SENHA</t>
+        </is>
+      </c>
+      <c r="C2995" t="inlineStr">
+        <is>
+          <t>PDF</t>
+        </is>
+      </c>
+    </row>
+    <row r="2996">
+      <c r="A2996" t="n">
+        <v>6875</v>
+      </c>
+      <c r="B2996" t="inlineStr">
+        <is>
+          <t>FINANCE - EXTRATO DE CONTA SIMPLES</t>
+        </is>
+      </c>
+      <c r="C2996" t="inlineStr">
+        <is>
+          <t>PDF</t>
+        </is>
+      </c>
+    </row>
+    <row r="2997">
+      <c r="A2997" t="n">
+        <v>6876</v>
+      </c>
+      <c r="B2997" t="inlineStr">
+        <is>
+          <t>SISTEMA DESCONHECIDO - EXTRATO DE MOVIMENTAÇÃO EM CONTAS CORRENTE (PARA SIMPLES CONFERÊNCIA)</t>
+        </is>
+      </c>
+      <c r="C2997" t="inlineStr">
+        <is>
+          <t>PDF</t>
+        </is>
+      </c>
+    </row>
+    <row r="2998">
+      <c r="A2998" t="n">
+        <v>6877</v>
+      </c>
+      <c r="B2998" t="inlineStr">
+        <is>
+          <t>KNOWHOW SISTEMAS - RELATÓRIO DE EXTRATO DE CONTA FINANCEIRA</t>
+        </is>
+      </c>
+      <c r="C2998" t="inlineStr">
+        <is>
+          <t>PDF</t>
+        </is>
+      </c>
+    </row>
+    <row r="2999">
+      <c r="A2999" t="n">
+        <v>1355</v>
+      </c>
+      <c r="B2999" t="inlineStr">
+        <is>
+          <t>SICOOB - EXTRATO DE CONTA CORRENTE V2 (VILA VALÉRIO)</t>
+        </is>
+      </c>
+      <c r="C2999" t="inlineStr">
+        <is>
+          <t>PDF</t>
+        </is>
+      </c>
+    </row>
+    <row r="3000">
+      <c r="A3000" t="n">
+        <v>6878</v>
+      </c>
+      <c r="B3000" t="inlineStr">
+        <is>
+          <t>SAPHIRO - EXTRATO</t>
+        </is>
+      </c>
+      <c r="C3000" t="inlineStr">
+        <is>
+          <t>PDF</t>
+        </is>
+      </c>
+    </row>
+    <row r="3001">
+      <c r="A3001" t="n">
+        <v>6879</v>
+      </c>
+      <c r="B3001" t="inlineStr">
+        <is>
+          <t>MAGALU - EXTRATO</t>
+        </is>
+      </c>
+      <c r="C3001" t="inlineStr">
+        <is>
+          <t>PDF</t>
+        </is>
+      </c>
+    </row>
+    <row r="3002">
+      <c r="A3002" t="n">
+        <v>6880</v>
+      </c>
+      <c r="B3002" t="inlineStr">
+        <is>
+          <t>CLINICORP  - EXTRATO</t>
+        </is>
+      </c>
+      <c r="C3002" t="inlineStr">
+        <is>
+          <t>PDF</t>
+        </is>
+      </c>
+    </row>
+    <row r="3003">
+      <c r="A3003" t="n">
+        <v>6881</v>
+      </c>
+      <c r="B3003" t="inlineStr">
+        <is>
+          <t>SISTEMA DESCONHECIDO - PRONAS PCD</t>
+        </is>
+      </c>
+      <c r="C3003" t="inlineStr">
+        <is>
+          <t>PDF</t>
+        </is>
+      </c>
+    </row>
+    <row r="3004">
+      <c r="A3004" t="n">
+        <v>4495</v>
+      </c>
+      <c r="B3004" t="inlineStr">
+        <is>
+          <t>EXTRATO SICOOB - ADEMIR 12345-6</t>
+        </is>
+      </c>
+      <c r="C3004" t="inlineStr">
+        <is>
+          <t>PDF</t>
+        </is>
+      </c>
+    </row>
+    <row r="3005">
+      <c r="A3005" t="n">
+        <v>1444</v>
+      </c>
+      <c r="B3005" t="inlineStr">
+        <is>
+          <t>BANCOS - EXTRATO DETALHADO GRAFENO (111036-5)</t>
+        </is>
+      </c>
+      <c r="C3005" t="inlineStr">
+        <is>
+          <t>PDF</t>
+        </is>
+      </c>
+    </row>
+    <row r="3006">
+      <c r="A3006" t="n">
+        <v>6882</v>
+      </c>
+      <c r="B3006" t="inlineStr">
+        <is>
+          <t>GESTCON - RELATÓRIO DE CONSULTA EXTRATOS</t>
+        </is>
+      </c>
+      <c r="C3006" t="inlineStr">
+        <is>
+          <t>PDF</t>
+        </is>
+      </c>
+    </row>
+    <row r="3007">
+      <c r="A3007" t="n">
+        <v>1805</v>
+      </c>
+      <c r="B3007" t="inlineStr">
+        <is>
+          <t>EXTRATO BB 20.806-X ICACAU</t>
+        </is>
+      </c>
+      <c r="C3007" t="inlineStr"/>
+    </row>
+    <row r="3008">
+      <c r="A3008" t="n">
+        <v>6883</v>
+      </c>
+      <c r="B3008" t="inlineStr">
+        <is>
+          <t>UBS - ACCOUNT ACTIVITY</t>
+        </is>
+      </c>
+      <c r="C3008" t="inlineStr">
+        <is>
+          <t>PDF</t>
+        </is>
+      </c>
+    </row>
+    <row r="3009">
+      <c r="A3009" t="n">
+        <v>6884</v>
+      </c>
+      <c r="B3009" t="inlineStr">
+        <is>
+          <t>MSISTEM - MOVIMENTAÇÃO BANCÁRIA</t>
+        </is>
+      </c>
+      <c r="C3009" t="inlineStr">
+        <is>
+          <t>PDF</t>
+        </is>
+      </c>
+    </row>
+    <row r="3010">
+      <c r="A3010" t="n">
+        <v>6885</v>
+      </c>
+      <c r="B3010" t="inlineStr">
+        <is>
+          <t>VONTOBEL - ACCOUNT STATEMENT</t>
+        </is>
+      </c>
+      <c r="C3010" t="inlineStr">
+        <is>
+          <t>PDF</t>
+        </is>
+      </c>
+    </row>
+    <row r="3011">
+      <c r="A3011" t="n">
+        <v>6886</v>
+      </c>
+      <c r="B3011" t="inlineStr">
+        <is>
+          <t>SAFRA - ACCOUNT STATEMENT</t>
+        </is>
+      </c>
+      <c r="C3011" t="inlineStr">
+        <is>
+          <t>PDF</t>
+        </is>
+      </c>
+    </row>
+    <row r="3012">
+      <c r="A3012" t="n">
+        <v>1252</v>
+      </c>
+      <c r="B3012" t="inlineStr">
+        <is>
+          <t>CEF - NOVO HOTEL BANESCO</t>
+        </is>
+      </c>
+      <c r="C3012" t="inlineStr">
+        <is>
+          <t>PDF</t>
+        </is>
+      </c>
+    </row>
+    <row r="3013">
+      <c r="A3013" t="n">
+        <v>6887</v>
+      </c>
+      <c r="B3013" t="inlineStr">
+        <is>
+          <t>SANKHYA - EXTRATO BANCÁRIO (CONCILIADOS E NÃO CONCILIADOS)</t>
+        </is>
+      </c>
+      <c r="C3013" t="inlineStr">
+        <is>
+          <t>PDF</t>
+        </is>
+      </c>
+    </row>
+    <row r="3014">
+      <c r="A3014" t="n">
+        <v>6888</v>
+      </c>
+      <c r="B3014" t="inlineStr">
+        <is>
+          <t>SISTEMA DESCONHECIDO - EXTRATO</t>
+        </is>
+      </c>
+      <c r="C3014" t="inlineStr">
+        <is>
+          <t>PDF</t>
+        </is>
+      </c>
+    </row>
+    <row r="3015">
+      <c r="A3015" t="n">
+        <v>6889</v>
+      </c>
+      <c r="B3015" t="inlineStr">
+        <is>
+          <t>OFICINA INTELIGENTE - EXTRATO BANCÁRIO</t>
+        </is>
+      </c>
+      <c r="C3015" t="inlineStr">
+        <is>
+          <t>PDF</t>
+        </is>
+      </c>
+    </row>
+    <row r="3016">
+      <c r="A3016" t="n">
+        <v>6890</v>
+      </c>
+      <c r="B3016" t="inlineStr">
+        <is>
+          <t>CITIBANK - ACCOUNT STATEMENT</t>
+        </is>
+      </c>
+      <c r="C3016" t="inlineStr">
+        <is>
+          <t>PDF</t>
+        </is>
+      </c>
+    </row>
+    <row r="3017">
+      <c r="A3017" t="n">
+        <v>6891</v>
+      </c>
+      <c r="B3017" t="inlineStr">
+        <is>
+          <t>SISTEMA DESCONHECIDO - EXTRATO DE CONTA CORRENTE</t>
+        </is>
+      </c>
+      <c r="C3017" t="inlineStr">
+        <is>
+          <t>PDF</t>
+        </is>
+      </c>
+    </row>
+    <row r="3018">
+      <c r="A3018" t="n">
+        <v>6892</v>
+      </c>
+      <c r="B3018" t="inlineStr">
+        <is>
+          <t>SISTEMA DESCONHECIDO - EXTRATO DE CONTA CORRENTE</t>
+        </is>
+      </c>
+      <c r="C3018" t="inlineStr">
+        <is>
+          <t>PDF</t>
+        </is>
+      </c>
+    </row>
+    <row r="3019">
+      <c r="A3019" t="n">
+        <v>6893</v>
+      </c>
+      <c r="B3019" t="inlineStr">
+        <is>
+          <t>SICOOB - TÍTULOS POR PERÍODO V2</t>
+        </is>
+      </c>
+      <c r="C3019" t="inlineStr">
+        <is>
+          <t>PDF</t>
+        </is>
+      </c>
+    </row>
+    <row r="3020">
+      <c r="A3020" t="n">
+        <v>6894</v>
+      </c>
+      <c r="B3020" t="inlineStr">
+        <is>
+          <t>SE7E - PAGAMENTOS ANALITICO POR FORNECEDOR</t>
+        </is>
+      </c>
+      <c r="C3020" t="inlineStr">
+        <is>
+          <t>PDF</t>
+        </is>
+      </c>
+    </row>
+    <row r="3021">
+      <c r="A3021" t="n">
+        <v>6895</v>
+      </c>
+      <c r="B3021" t="inlineStr">
+        <is>
+          <t>SIENGE - CONTAS A PAGAR (POR DATA DE VENCIMENTO)</t>
+        </is>
+      </c>
+      <c r="C3021" t="inlineStr"/>
+    </row>
+    <row r="3022">
+      <c r="A3022" t="n">
+        <v>6896</v>
+      </c>
+      <c r="B3022" t="inlineStr">
+        <is>
+          <t>W3ERP - RELATÓRIO DETALHADO DE CONTAS A PAGAR</t>
+        </is>
+      </c>
+      <c r="C3022" t="inlineStr">
+        <is>
+          <t>PDF</t>
+        </is>
+      </c>
+    </row>
+    <row r="3023">
+      <c r="A3023" t="n">
+        <v>6897</v>
+      </c>
+      <c r="B3023" t="inlineStr">
+        <is>
+          <t>ALTERDATA - RELATÓRIO GERAL ANALITICO</t>
+        </is>
+      </c>
+      <c r="C3023" t="inlineStr">
+        <is>
+          <t>PDF</t>
+        </is>
+      </c>
+    </row>
+    <row r="3024">
+      <c r="A3024" t="n">
+        <v>6898</v>
+      </c>
+      <c r="B3024" t="inlineStr">
+        <is>
+          <t>BRADESCO - EXTRATO V3</t>
+        </is>
+      </c>
+      <c r="C3024" t="inlineStr">
+        <is>
+          <t>PDF</t>
+        </is>
+      </c>
+    </row>
+    <row r="3025">
+      <c r="A3025" t="n">
+        <v>6899</v>
+      </c>
+      <c r="B3025" t="inlineStr">
+        <is>
+          <t>TOTVS - TÍTULOS DE OBRIGAÇÃO QUITADOS</t>
+        </is>
+      </c>
+      <c r="C3025" t="inlineStr">
+        <is>
+          <t>PDF</t>
+        </is>
+      </c>
+    </row>
+    <row r="3026">
+      <c r="A3026" t="n">
+        <v>6900</v>
+      </c>
+      <c r="B3026" t="inlineStr">
+        <is>
+          <t>2TASK - FLUXO DE CAIXA</t>
+        </is>
+      </c>
+      <c r="C3026" t="inlineStr">
+        <is>
+          <t>PDF</t>
+        </is>
+      </c>
+    </row>
+    <row r="3027">
+      <c r="A3027" t="n">
+        <v>6901</v>
+      </c>
+      <c r="B3027" t="inlineStr">
+        <is>
+          <t>KOPER - CONTAS PAGAS</t>
+        </is>
+      </c>
+      <c r="C3027" t="inlineStr">
+        <is>
+          <t>PDF</t>
+        </is>
+      </c>
+    </row>
+    <row r="3028">
+      <c r="A3028" t="n">
+        <v>6902</v>
+      </c>
+      <c r="B3028" t="inlineStr">
+        <is>
+          <t>QUARTARH - CONFERÊNCIA DO IRRF - REGIME CAIXA</t>
+        </is>
+      </c>
+      <c r="C3028" t="inlineStr">
+        <is>
+          <t>PDF</t>
+        </is>
+      </c>
+    </row>
+    <row r="3029">
+      <c r="A3029" t="n">
+        <v>6903</v>
+      </c>
+      <c r="B3029" t="inlineStr">
+        <is>
+          <t>MSISTEM - CONTAS PAGAS</t>
+        </is>
+      </c>
+      <c r="C3029" t="inlineStr">
+        <is>
+          <t>PDF</t>
+        </is>
+      </c>
+    </row>
+    <row r="3030">
+      <c r="A3030" t="n">
+        <v>6904</v>
+      </c>
+      <c r="B3030" t="inlineStr">
+        <is>
+          <t>QUARTA RH - FOLHA DE ADIANTAMENTO</t>
+        </is>
+      </c>
+      <c r="C3030" t="inlineStr">
+        <is>
+          <t>PDF</t>
+        </is>
+      </c>
+    </row>
+    <row r="3031">
+      <c r="A3031" t="n">
+        <v>6905</v>
+      </c>
+      <c r="B3031" t="inlineStr">
+        <is>
+          <t>COMSYSTEM - CONTAS PAGAS</t>
+        </is>
+      </c>
+      <c r="C3031" t="inlineStr">
+        <is>
+          <t>PDF</t>
+        </is>
+      </c>
+    </row>
+    <row r="3032">
+      <c r="A3032" t="n">
+        <v>1211</v>
+      </c>
+      <c r="B3032" t="inlineStr">
+        <is>
+          <t>KONNEN ITAU C/C 99750-6 CONSOLIDADO</t>
+        </is>
+      </c>
+      <c r="C3032" t="inlineStr">
+        <is>
+          <t>PDF</t>
+        </is>
+      </c>
+    </row>
+    <row r="3033">
+      <c r="A3033" t="n">
+        <v>1098</v>
+      </c>
+      <c r="B3033" t="inlineStr">
+        <is>
+          <t>SICOOB 907</t>
+        </is>
+      </c>
+      <c r="C3033" t="inlineStr">
+        <is>
+          <t>PDF</t>
+        </is>
+      </c>
+    </row>
+    <row r="3034">
+      <c r="A3034" t="n">
+        <v>6906</v>
+      </c>
+      <c r="B3034" t="inlineStr">
+        <is>
+          <t>BROKERAGE - ACCOUNT STATEMENT</t>
+        </is>
+      </c>
+      <c r="C3034" t="inlineStr">
+        <is>
+          <t>PDF</t>
+        </is>
+      </c>
+    </row>
+    <row r="3035">
+      <c r="A3035" t="n">
+        <v>6907</v>
+      </c>
+      <c r="B3035" t="inlineStr">
+        <is>
+          <t>CRESOL - EXTRATO V2</t>
+        </is>
+      </c>
+      <c r="C3035" t="inlineStr">
+        <is>
+          <t>PDF</t>
+        </is>
+      </c>
+    </row>
+    <row r="3036">
+      <c r="A3036" t="n">
+        <v>6908</v>
+      </c>
+      <c r="B3036" t="inlineStr">
+        <is>
+          <t>ORBITA - RELATÓRIO DE PAGAMENTOS SINTETICO</t>
+        </is>
+      </c>
+      <c r="C3036" t="inlineStr">
+        <is>
+          <t>PDF</t>
+        </is>
+      </c>
+    </row>
+    <row r="3037">
+      <c r="A3037" t="n">
+        <v>6909</v>
+      </c>
+      <c r="B3037" t="inlineStr">
+        <is>
+          <t>DIGIFARMA - RESUMO DE CAIXA</t>
+        </is>
+      </c>
+      <c r="C3037" t="inlineStr">
+        <is>
+          <t>PDF</t>
+        </is>
+      </c>
+    </row>
+    <row r="3038">
+      <c r="A3038" t="n">
+        <v>6910</v>
+      </c>
+      <c r="B3038" t="inlineStr">
+        <is>
+          <t>BANESTES - EXTRATO CC V6</t>
+        </is>
+      </c>
+      <c r="C3038" t="inlineStr">
+        <is>
+          <t>PDF</t>
+        </is>
+      </c>
+    </row>
+    <row r="3039">
+      <c r="A3039" t="n">
+        <v>1274</v>
+      </c>
+      <c r="B3039" t="inlineStr">
+        <is>
+          <t>SICREDI LA CONFE</t>
+        </is>
+      </c>
+      <c r="C3039" t="inlineStr">
+        <is>
+          <t>PDF</t>
+        </is>
+      </c>
+    </row>
+    <row r="3040">
+      <c r="A3040" t="n">
+        <v>6911</v>
+      </c>
+      <c r="B3040" t="inlineStr">
+        <is>
+          <t>RAD INFO - CONTAS A PAGAR POR SUBNIVEL</t>
+        </is>
+      </c>
+      <c r="C3040" t="inlineStr">
+        <is>
+          <t>PDF</t>
+        </is>
+      </c>
+    </row>
+    <row r="3041">
+      <c r="A3041" t="n">
+        <v>6912</v>
+      </c>
+      <c r="B3041" t="inlineStr">
+        <is>
+          <t>SPED - BALANCETE MENSAL DE VERIFICAÇÃO</t>
+        </is>
+      </c>
+      <c r="C3041" t="inlineStr">
+        <is>
+          <t>PDF</t>
+        </is>
+      </c>
+    </row>
+    <row r="3042">
+      <c r="A3042" t="n">
+        <v>6913</v>
+      </c>
+      <c r="B3042" t="inlineStr">
+        <is>
+          <t>SOCIETY - RELATÓRIO DE NOTAS FISCAIS DE ENTRADA</t>
+        </is>
+      </c>
+      <c r="C3042" t="inlineStr">
+        <is>
+          <t>PDF</t>
+        </is>
+      </c>
+    </row>
+    <row r="3043">
+      <c r="A3043" t="n">
+        <v>6914</v>
+      </c>
+      <c r="B3043" t="inlineStr">
+        <is>
+          <t>SOCIETY - RELATÓRIO DE NOTAS FISCAIS DE ENTRADA</t>
+        </is>
+      </c>
+      <c r="C3043" t="inlineStr">
+        <is>
+          <t>PDF</t>
+        </is>
+      </c>
+    </row>
+    <row r="3044">
+      <c r="A3044" t="n">
+        <v>6915</v>
+      </c>
+      <c r="B3044" t="inlineStr">
+        <is>
+          <t>SOCIETY - RELATÓRIO DE NOTAS FISCAIS DE ENTRADA</t>
+        </is>
+      </c>
+      <c r="C3044" t="inlineStr">
+        <is>
+          <t>PDF</t>
+        </is>
+      </c>
+    </row>
+    <row r="3045">
+      <c r="A3045" t="n">
+        <v>6916</v>
+      </c>
+      <c r="B3045" t="inlineStr">
+        <is>
+          <t>FOCCO - RELATÓRIO DE CONTA CORRENTE</t>
+        </is>
+      </c>
+      <c r="C3045" t="inlineStr">
+        <is>
+          <t>PDF</t>
+        </is>
+      </c>
+    </row>
+    <row r="3046">
+      <c r="A3046" t="n">
+        <v>1185</v>
+      </c>
+      <c r="B3046" t="inlineStr">
+        <is>
+          <t>ITAU MASTER 82199-7 EXTRATO CORRENTE</t>
+        </is>
+      </c>
+      <c r="C3046" t="inlineStr">
+        <is>
+          <t>PDF</t>
+        </is>
+      </c>
+    </row>
+    <row r="3047">
+      <c r="A3047" t="n">
+        <v>1289</v>
+      </c>
+      <c r="B3047" t="inlineStr">
+        <is>
+          <t>RELATÓRIO DE PAGAMENTOS EQUI PEÇAS</t>
+        </is>
+      </c>
+      <c r="C3047" t="inlineStr">
+        <is>
+          <t>PDF</t>
+        </is>
+      </c>
+    </row>
+    <row r="3048">
+      <c r="A3048" t="n">
+        <v>6917</v>
+      </c>
+      <c r="B3048" t="inlineStr">
+        <is>
+          <t>PETR@ - FECHAMENTO</t>
+        </is>
+      </c>
+      <c r="C3048" t="inlineStr">
+        <is>
+          <t>PDF</t>
+        </is>
+      </c>
+    </row>
+    <row r="3049">
+      <c r="A3049" t="n">
+        <v>6918</v>
+      </c>
+      <c r="B3049" t="inlineStr">
+        <is>
+          <t>CIGAM - FATURA</t>
+        </is>
+      </c>
+      <c r="C3049" t="inlineStr">
+        <is>
+          <t>PDF</t>
+        </is>
+      </c>
+    </row>
+    <row r="3050">
+      <c r="A3050" t="n">
+        <v>2337</v>
+      </c>
+      <c r="B3050" t="inlineStr">
+        <is>
+          <t>DOMINIO - RESUMO DA FOLHA OBRAGEN ENGENHARIA</t>
+        </is>
+      </c>
+      <c r="C3050" t="inlineStr">
+        <is>
+          <t>PDF</t>
+        </is>
+      </c>
+    </row>
+    <row r="3051">
+      <c r="A3051" t="n">
+        <v>6919</v>
+      </c>
+      <c r="B3051" t="inlineStr">
+        <is>
+          <t>MEMBROS WEB - EXTRATO CONTA CORRENTE</t>
+        </is>
+      </c>
+      <c r="C3051" t="inlineStr">
+        <is>
+          <t>PDF</t>
+        </is>
+      </c>
+    </row>
+    <row r="3052">
+      <c r="A3052" t="n">
+        <v>6920</v>
+      </c>
+      <c r="B3052" t="inlineStr">
+        <is>
+          <t>DESCONHECIDO - RELATÓRIO DE CONTAS A PAGAR</t>
+        </is>
+      </c>
+      <c r="C3052" t="inlineStr">
+        <is>
+          <t>PDF</t>
+        </is>
+      </c>
+    </row>
+    <row r="3053">
+      <c r="A3053" t="n">
+        <v>6921</v>
+      </c>
+      <c r="B3053" t="inlineStr">
+        <is>
+          <t>DESCONHECIDO - EXTRATO</t>
+        </is>
+      </c>
+      <c r="C3053" t="inlineStr">
+        <is>
+          <t>PDF</t>
+        </is>
+      </c>
+    </row>
+    <row r="3054">
+      <c r="A3054" t="n">
+        <v>6922</v>
+      </c>
+      <c r="B3054" t="inlineStr">
+        <is>
+          <t>DEVELOPER EXPRESS - LANÇAMENTO</t>
+        </is>
+      </c>
+      <c r="C3054" t="inlineStr">
+        <is>
+          <t>PDF</t>
+        </is>
+      </c>
+    </row>
+    <row r="3055">
+      <c r="A3055" t="n">
+        <v>6923</v>
+      </c>
+      <c r="B3055" t="inlineStr">
+        <is>
+          <t>VILASOFT ADFIN - DÉBITOS E CRÉDITOS</t>
+        </is>
+      </c>
+      <c r="C3055" t="inlineStr">
+        <is>
+          <t>PDF</t>
+        </is>
+      </c>
+    </row>
+    <row r="3056">
+      <c r="A3056" t="n">
+        <v>6924</v>
+      </c>
+      <c r="B3056" t="inlineStr">
+        <is>
+          <t>SCI - TXT CONCILIADO</t>
+        </is>
+      </c>
+      <c r="C3056" t="inlineStr">
+        <is>
+          <t>TXT</t>
+        </is>
+      </c>
+    </row>
+    <row r="3057">
+      <c r="A3057" t="n">
+        <v>6925</v>
+      </c>
+      <c r="B3057" t="inlineStr">
+        <is>
+          <t>CRESOL - CONTA GRAFICA SIMPLIFICADA</t>
+        </is>
+      </c>
+      <c r="C3057" t="inlineStr">
+        <is>
+          <t>PDF</t>
+        </is>
+      </c>
+    </row>
+    <row r="3058">
+      <c r="A3058" t="n">
+        <v>6926</v>
+      </c>
+      <c r="B3058" t="inlineStr">
+        <is>
+          <t>DATA LIDER - FLUXO DA CONTA</t>
+        </is>
+      </c>
+      <c r="C3058" t="inlineStr">
+        <is>
+          <t>PDF</t>
+        </is>
+      </c>
+    </row>
+    <row r="3059">
+      <c r="A3059" t="n">
+        <v>1356</v>
+      </c>
+      <c r="B3059" t="inlineStr">
+        <is>
+          <t>THAIRO-CAIXA-ECONOMICAS</t>
+        </is>
+      </c>
+      <c r="C3059" t="inlineStr">
+        <is>
+          <t>PDF</t>
+        </is>
+      </c>
+    </row>
+    <row r="3060">
+      <c r="A3060" t="n">
+        <v>6927</v>
+      </c>
+      <c r="B3060" t="inlineStr">
+        <is>
+          <t>DESCONHECIDO - CONTAS RECEBIDAS</t>
+        </is>
+      </c>
+      <c r="C3060" t="inlineStr">
+        <is>
+          <t>PDF</t>
+        </is>
+      </c>
+    </row>
+    <row r="3061">
+      <c r="A3061" t="n">
+        <v>1205</v>
+      </c>
+      <c r="B3061" t="inlineStr">
+        <is>
+          <t>COND SOBRAL SHOPPING - BRADESCO 45880-5</t>
+        </is>
+      </c>
+      <c r="C3061" t="inlineStr">
+        <is>
+          <t>PDF</t>
+        </is>
+      </c>
+    </row>
+    <row r="3062">
+      <c r="A3062" t="n">
+        <v>6928</v>
+      </c>
+      <c r="B3062" t="inlineStr">
+        <is>
+          <t>COBRE FACIL - EXTRATO FINANCEIRO</t>
+        </is>
+      </c>
+      <c r="C3062" t="inlineStr">
+        <is>
+          <t>PDF</t>
+        </is>
+      </c>
+    </row>
+    <row r="3063">
+      <c r="A3063" t="n">
+        <v>6929</v>
+      </c>
+      <c r="B3063" t="inlineStr">
+        <is>
+          <t>ALTERDATA  - PROVISÃO DE FÉRIAS</t>
+        </is>
+      </c>
+      <c r="C3063" t="inlineStr">
+        <is>
+          <t>PDF</t>
+        </is>
+      </c>
+    </row>
+    <row r="3064">
+      <c r="A3064" t="n">
+        <v>6930</v>
+      </c>
+      <c r="B3064" t="inlineStr">
+        <is>
+          <t>BRDE - EXTRATO DE MOVIMENTAÇÃO</t>
+        </is>
+      </c>
+      <c r="C3064" t="inlineStr">
+        <is>
+          <t>PDF</t>
+        </is>
+      </c>
+    </row>
+    <row r="3065">
+      <c r="A3065" t="n">
+        <v>6931</v>
+      </c>
+      <c r="B3065" t="inlineStr">
+        <is>
+          <t>CAPITAL UNION BANK - ACCOUNT STATEMENT</t>
+        </is>
+      </c>
+      <c r="C3065" t="inlineStr">
+        <is>
+          <t>PDF</t>
+        </is>
+      </c>
+    </row>
+    <row r="3066">
+      <c r="A3066" t="n">
+        <v>6932</v>
+      </c>
+      <c r="B3066" t="inlineStr">
+        <is>
+          <t>SISTEC -  RELATÓRIO TÍTULOS RECEBIDOS V2</t>
+        </is>
+      </c>
+      <c r="C3066" t="inlineStr">
+        <is>
+          <t>PDF</t>
+        </is>
+      </c>
+    </row>
+    <row r="3067">
+      <c r="A3067" t="n">
+        <v>6933</v>
+      </c>
+      <c r="B3067" t="inlineStr">
+        <is>
+          <t>MAGIC CIRCLE BANK - EXTRATO</t>
+        </is>
+      </c>
+      <c r="C3067" t="inlineStr">
+        <is>
+          <t>PDF</t>
+        </is>
+      </c>
+    </row>
+    <row r="3068">
+      <c r="A3068" t="n">
+        <v>6934</v>
+      </c>
+      <c r="B3068" t="inlineStr">
+        <is>
+          <t>INTER - MOVIMENTAÇÕES</t>
+        </is>
+      </c>
+      <c r="C3068" t="inlineStr">
+        <is>
+          <t>PDF</t>
+        </is>
+      </c>
+    </row>
+    <row r="3069">
+      <c r="A3069" t="n">
+        <v>6935</v>
+      </c>
+      <c r="B3069" t="inlineStr">
+        <is>
+          <t>DESCONHECIDO - LIVRO CAIXA</t>
+        </is>
+      </c>
+      <c r="C3069" t="inlineStr">
+        <is>
+          <t>PDF</t>
+        </is>
+      </c>
+    </row>
+    <row r="3070">
+      <c r="A3070" t="n">
+        <v>6936</v>
+      </c>
+      <c r="B3070" t="inlineStr">
+        <is>
+          <t>MULTSOFT - MOVIMENTAÇÃO FINANCEIRA (DESPESAS BAIXADAS)</t>
+        </is>
+      </c>
+      <c r="C3070" t="inlineStr">
+        <is>
+          <t>PDF</t>
+        </is>
+      </c>
+    </row>
+    <row r="3071">
+      <c r="A3071" t="n">
+        <v>6937</v>
+      </c>
+      <c r="B3071" t="inlineStr">
+        <is>
+          <t>SICREDI - PAGAMENTOS REALIZADOS DETALHADO</t>
+        </is>
+      </c>
+      <c r="C3071" t="inlineStr">
+        <is>
+          <t>PDF</t>
+        </is>
+      </c>
+    </row>
+    <row r="3072">
+      <c r="A3072" t="n">
+        <v>6938</v>
+      </c>
+      <c r="B3072" t="inlineStr">
+        <is>
+          <t>TARGET ERP - CONTAS A PAGAR</t>
+        </is>
+      </c>
+      <c r="C3072" t="inlineStr">
+        <is>
+          <t>PDF</t>
+        </is>
+      </c>
+    </row>
+    <row r="3073">
+      <c r="A3073" t="n">
+        <v>6939</v>
+      </c>
+      <c r="B3073" t="inlineStr">
+        <is>
+          <t>PAGSEGURO - EXTRATO DE CARTÃO V2</t>
+        </is>
+      </c>
+      <c r="C3073" t="inlineStr">
+        <is>
+          <t>PDF</t>
+        </is>
+      </c>
+    </row>
+    <row r="3074">
+      <c r="A3074" t="n">
+        <v>1199</v>
+      </c>
+      <c r="B3074" t="inlineStr">
+        <is>
+          <t>EXTRATO CEF - FERRO E AÇO</t>
+        </is>
+      </c>
+      <c r="C3074" t="inlineStr">
+        <is>
+          <t>PDF</t>
+        </is>
+      </c>
+    </row>
+    <row r="3075">
+      <c r="A3075" t="n">
+        <v>6940</v>
+      </c>
+      <c r="B3075" t="inlineStr">
+        <is>
+          <t>SISPRIME - EXTRATO CAPITAL</t>
+        </is>
+      </c>
+      <c r="C3075" t="inlineStr">
+        <is>
+          <t>PDF</t>
+        </is>
+      </c>
+    </row>
+    <row r="3076">
+      <c r="A3076" t="n">
+        <v>6941</v>
+      </c>
+      <c r="B3076" t="inlineStr">
+        <is>
+          <t>EAZY CONTROL - MOVIMENTAÇÃO DO CAIXA</t>
+        </is>
+      </c>
+      <c r="C3076" t="inlineStr">
+        <is>
+          <t>PDF</t>
+        </is>
+      </c>
+    </row>
+    <row r="3077">
+      <c r="A3077" t="n">
+        <v>6942</v>
+      </c>
+      <c r="B3077" t="inlineStr">
+        <is>
+          <t>EXODUS - EXTRATO FINANCEIRO</t>
+        </is>
+      </c>
+      <c r="C3077" t="inlineStr">
+        <is>
+          <t>PDF</t>
+        </is>
+      </c>
+    </row>
+    <row r="3078">
+      <c r="A3078" t="n">
+        <v>6943</v>
+      </c>
+      <c r="B3078" t="inlineStr">
+        <is>
+          <t>STARTWO - TITULOS LIQUIDADOS</t>
+        </is>
+      </c>
+      <c r="C3078" t="inlineStr">
+        <is>
+          <t>PDF</t>
+        </is>
+      </c>
+    </row>
+    <row r="3079">
+      <c r="A3079" t="n">
+        <v>6944</v>
+      </c>
+      <c r="B3079" t="inlineStr">
+        <is>
+          <t>STONE - VENDAS</t>
+        </is>
+      </c>
+      <c r="C3079" t="inlineStr"/>
+    </row>
+    <row r="3080">
+      <c r="A3080" t="n">
+        <v>6945</v>
+      </c>
+      <c r="B3080" t="inlineStr">
+        <is>
+          <t>IOB - LANÇAMENTOS REGISTRADOS POR CENTRO DE CUSTO</t>
+        </is>
+      </c>
+      <c r="C3080" t="inlineStr">
+        <is>
+          <t>PDF</t>
+        </is>
+      </c>
+    </row>
+    <row r="3081">
+      <c r="A3081" t="n">
+        <v>6946</v>
+      </c>
+      <c r="B3081" t="inlineStr">
+        <is>
+          <t>MERRILL - WCMA TRANSACTIONS</t>
+        </is>
+      </c>
+      <c r="C3081" t="inlineStr">
+        <is>
+          <t>PDF</t>
+        </is>
+      </c>
+    </row>
+    <row r="3082">
+      <c r="A3082" t="n">
+        <v>6947</v>
+      </c>
+      <c r="B3082" t="inlineStr">
+        <is>
+          <t>ECO CENTAURO - CONTAS PAGAS V2</t>
+        </is>
+      </c>
+      <c r="C3082" t="inlineStr">
         <is>
           <t>PDF</t>
         </is>
